--- a/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>212714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190426</v>
+        <v>190473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>237118</v>
+        <v>237685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3085658370968483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.27623447111189</v>
+        <v>0.2763016935307254</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.34396602207053</v>
+        <v>0.3447888971489478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>215</v>
@@ -765,19 +765,19 @@
         <v>217868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193070</v>
+        <v>191414</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>244706</v>
+        <v>243942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2271926171707674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2013332223417611</v>
+        <v>0.1996063321690618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2551790392168396</v>
+        <v>0.254382166086604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>428</v>
@@ -786,19 +786,19 @@
         <v>430583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>396596</v>
+        <v>397453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>467232</v>
+        <v>468329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2612246860368029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.240605444772045</v>
+        <v>0.2411253773313682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2834591066297031</v>
+        <v>0.284124499202917</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>476651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452247</v>
+        <v>451680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>498939</v>
+        <v>498892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6914341629031516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6560339779294699</v>
+        <v>0.6552111028510522</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.72376552888811</v>
+        <v>0.7236983064692747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>732</v>
@@ -836,19 +836,19 @@
         <v>741091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>714253</v>
+        <v>715017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>765889</v>
+        <v>767545</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7728073828292326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.74482096078316</v>
+        <v>0.745617833913396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7986667776582388</v>
+        <v>0.8003936678309382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1215</v>
@@ -857,19 +857,19 @@
         <v>1217741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1181092</v>
+        <v>1179995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1251728</v>
+        <v>1250871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7387753139631972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7165408933702969</v>
+        <v>0.7158755007970828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.759394555227955</v>
+        <v>0.7588746226686318</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>239496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>213300</v>
+        <v>214169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267519</v>
+        <v>268137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1822027010288738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.162273622801732</v>
+        <v>0.162934906308611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2035216753313443</v>
+        <v>0.2039922285989663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -982,19 +982,19 @@
         <v>159393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136477</v>
+        <v>135359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>184053</v>
+        <v>184315</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1160745968358815</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09938657312061509</v>
+        <v>0.0985726423905183</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1340328527951201</v>
+        <v>0.1342236338055952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>393</v>
@@ -1003,19 +1003,19 @@
         <v>398889</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>364602</v>
+        <v>364124</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>435846</v>
+        <v>437873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1484159234380016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1356584582640313</v>
+        <v>0.135480767381274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1621668114736932</v>
+        <v>0.1629207302922737</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1074952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1046929</v>
+        <v>1046311</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1101148</v>
+        <v>1100279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8177972989711263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7964783246686558</v>
+        <v>0.7960077714010336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.837726377198268</v>
+        <v>0.837065093691389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1188</v>
@@ -1053,19 +1053,19 @@
         <v>1213802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1189142</v>
+        <v>1188880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1236718</v>
+        <v>1237836</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8839254031641185</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8659671472048799</v>
+        <v>0.8657763661944049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9006134268793848</v>
+        <v>0.9014273576094817</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2232</v>
@@ -1074,19 +1074,19 @@
         <v>2288754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2251797</v>
+        <v>2249770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2323041</v>
+        <v>2323519</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8515840765619984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8378331885263067</v>
+        <v>0.8370792697077266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8643415417359688</v>
+        <v>0.8645192326187262</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25799</v>
+        <v>26747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51926</v>
+        <v>51853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08312191648591158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0572122840390567</v>
+        <v>0.05931503322549066</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1151543243351937</v>
+        <v>0.1149924478046993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>25301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16684</v>
+        <v>16922</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36633</v>
+        <v>36772</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06189308296191486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04081478098088262</v>
+        <v>0.04139713933432097</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.089614636505412</v>
+        <v>0.08995452173018863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>62783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47883</v>
+        <v>48000</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79526</v>
+        <v>79253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07302784745665411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05569684078243376</v>
+        <v>0.05583267905017355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09250312980057998</v>
+        <v>0.09218566477445153</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>413447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399003</v>
+        <v>399076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>425130</v>
+        <v>424182</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9168780835140884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8848456756648062</v>
+        <v>0.8850075521953011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9427877159609434</v>
+        <v>0.9406849667745094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>364</v>
@@ -1270,19 +1270,19 @@
         <v>383482</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372150</v>
+        <v>372011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>392099</v>
+        <v>391861</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9381069170380851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9103853634945875</v>
+        <v>0.9100454782698114</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9591852190191174</v>
+        <v>0.9586028606656806</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>760</v>
@@ -1291,19 +1291,19 @@
         <v>796929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>780186</v>
+        <v>780459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>811829</v>
+        <v>811712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9269721525433459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.90749687019942</v>
+        <v>0.9078143352255484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9443031592175662</v>
+        <v>0.9441673209498264</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>489693</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1994884374704375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>395</v>
@@ -1416,19 +1416,19 @@
         <v>402562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1468703088849137</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>879</v>
@@ -1437,19 +1437,19 @@
         <v>892255</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1717301817827289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1965049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1924726</v>
+        <v>1926163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2000636</v>
+        <v>2009741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8005115625295626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7840850116258432</v>
+        <v>0.7846702236876698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.815008733912025</v>
+        <v>0.8187179121338949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2284</v>
@@ -1487,19 +1487,19 @@
         <v>2338375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2303592</v>
+        <v>2298714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2374461</v>
+        <v>2375937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8531296911150863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.840439523865224</v>
+        <v>0.8386597733294703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8662952037071465</v>
+        <v>0.8668338966468488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4207</v>
@@ -1508,19 +1508,19 @@
         <v>4303424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4249279</v>
+        <v>4250758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4358769</v>
+        <v>4358425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8282698182172711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8178486444524178</v>
+        <v>0.818133390714457</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8389218579123776</v>
+        <v>0.8388556598534002</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>323513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>297409</v>
+        <v>297173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>354571</v>
+        <v>355040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4152002921100864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3816979271779439</v>
+        <v>0.3813950397786867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4550603895391053</v>
+        <v>0.4556620207101214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>280</v>
@@ -1872,19 +1872,19 @@
         <v>299858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269521</v>
+        <v>268606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>329283</v>
+        <v>333265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2657826651938125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2388930958131594</v>
+        <v>0.2380824141347699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2918640204712563</v>
+        <v>0.2953936563621271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>584</v>
@@ -1893,19 +1893,19 @@
         <v>623371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>582369</v>
+        <v>587313</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666903</v>
+        <v>666944</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3268204876085523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3053244290519992</v>
+        <v>0.3079161392673562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3496436893760406</v>
+        <v>0.3496653599608023</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>455661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424603</v>
+        <v>424134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481765</v>
+        <v>482001</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5847997078899135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5449396104608947</v>
+        <v>0.5443379792898794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6183020728220561</v>
+        <v>0.6186049602213135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>772</v>
@@ -1943,19 +1943,19 @@
         <v>828348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>798923</v>
+        <v>794941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>858685</v>
+        <v>859600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7342173348061876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7081359795287436</v>
+        <v>0.7046063436378728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7611069041868407</v>
+        <v>0.76191758586523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -1964,19 +1964,19 @@
         <v>1284008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1240476</v>
+        <v>1240435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1325010</v>
+        <v>1320066</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6731795123914478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6503563106239594</v>
+        <v>0.6503346400391976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6946755709480005</v>
+        <v>0.6920838607326437</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>351910</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>317197</v>
+        <v>321329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>387500</v>
+        <v>389976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2084431770746804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1878816876776025</v>
+        <v>0.190329569525274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2295237296451309</v>
+        <v>0.2309906507913359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -2089,19 +2089,19 @@
         <v>218348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192751</v>
+        <v>190711</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>249498</v>
+        <v>248026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1373939640648199</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1212872582432948</v>
+        <v>0.12000320128224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1569948151861069</v>
+        <v>0.1560686549430618</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>534</v>
@@ -2110,19 +2110,19 @@
         <v>570258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>526599</v>
+        <v>528429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619176</v>
+        <v>614814</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.173992327337999</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1606714596447392</v>
+        <v>0.1612296481783697</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1889177724575629</v>
+        <v>0.1875869179018033</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1336368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1300778</v>
+        <v>1298302</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1371081</v>
+        <v>1366949</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7915568229253196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7704762703548691</v>
+        <v>0.7690093492086643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8121183123223975</v>
+        <v>0.8096704304747261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1273</v>
@@ -2160,19 +2160,19 @@
         <v>1370865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1339715</v>
+        <v>1341187</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1396462</v>
+        <v>1398502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.86260603593518</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.843005184813893</v>
+        <v>0.8439313450569379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.878712741756705</v>
+        <v>0.87999679871776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2539</v>
@@ -2181,19 +2181,19 @@
         <v>2707233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2658315</v>
+        <v>2662677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2750892</v>
+        <v>2749062</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8260076726620009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8110822275424375</v>
+        <v>0.8124130820981967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8393285403552609</v>
+        <v>0.8387703518216304</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>44774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32440</v>
+        <v>32018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62085</v>
+        <v>59244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1012684763708235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07337070251510025</v>
+        <v>0.07241748033770891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1404218780999622</v>
+        <v>0.1339957099601626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2306,19 +2306,19 @@
         <v>32714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21789</v>
+        <v>22385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46064</v>
+        <v>46011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07720591067100256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05142192799094743</v>
+        <v>0.05282858864819617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1087117491058877</v>
+        <v>0.1085874264887943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2327,19 +2327,19 @@
         <v>77488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60741</v>
+        <v>62378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97084</v>
+        <v>98256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08949301835632334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07015102971708823</v>
+        <v>0.072041824720075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1121242986966557</v>
+        <v>0.1134788823696215</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>397360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>380049</v>
+        <v>382890</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>409694</v>
+        <v>410116</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8987315236291765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8595781219000379</v>
+        <v>0.8660042900398374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9266292974848997</v>
+        <v>0.9275825196622912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -2377,19 +2377,19 @@
         <v>391009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>377659</v>
+        <v>377712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401934</v>
+        <v>401338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9227940893289974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8912882508941126</v>
+        <v>0.8914125735112056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9485780720090525</v>
+        <v>0.9471714113518037</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>714</v>
@@ -2398,19 +2398,19 @@
         <v>788369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>768773</v>
+        <v>767601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>805116</v>
+        <v>803479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9105069816436766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8878757013033443</v>
+        <v>0.8865211176303786</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9298489702829117</v>
+        <v>0.9279581752799251</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>720197</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>669891</v>
+        <v>671439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>772340</v>
+        <v>765425</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2475257564337871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2302356823909475</v>
+        <v>0.2307678455474773</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2654465314499383</v>
+        <v>0.2630700964605357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>513</v>
@@ -2523,19 +2523,19 @@
         <v>550920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>505263</v>
+        <v>508976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>597651</v>
+        <v>596002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1753883583315091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1608531269752845</v>
+        <v>0.1620353854606057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1902656474685264</v>
+        <v>0.1897404461966523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1187</v>
@@ -2544,19 +2544,19 @@
         <v>1271117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1209261</v>
+        <v>1205050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1338311</v>
+        <v>1336561</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2100767372542188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1998538212376848</v>
+        <v>0.199157826659298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.221181836984425</v>
+        <v>0.2208926602360097</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2189389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2137246</v>
+        <v>2144161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2239695</v>
+        <v>2238147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7524742435662128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7345534685500618</v>
+        <v>0.7369299035394644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7697643176090526</v>
+        <v>0.769232154452523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2397</v>
@@ -2594,19 +2594,19 @@
         <v>2590222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2543491</v>
+        <v>2545140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2635879</v>
+        <v>2632166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.824611641668491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8097343525314729</v>
+        <v>0.810259553803348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8391468730247155</v>
+        <v>0.8379646145393953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4454</v>
@@ -2615,19 +2615,19 @@
         <v>4779611</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4712417</v>
+        <v>4714167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4841467</v>
+        <v>4845678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7899232627457812</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7788181630155748</v>
+        <v>0.7791073397639903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.800146178762315</v>
+        <v>0.800842173340702</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>152060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133168</v>
+        <v>130834</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172445</v>
+        <v>173653</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3324307097348818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2911293985357546</v>
+        <v>0.2860256271588489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3769949777822988</v>
+        <v>0.3796356748623188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -2979,19 +2979,19 @@
         <v>138682</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117820</v>
+        <v>117313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162375</v>
+        <v>161195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2170728906806418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1844183184189215</v>
+        <v>0.1836250012286308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2541581933387737</v>
+        <v>0.2523114200608801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>272</v>
@@ -3000,19 +3000,19 @@
         <v>290742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259842</v>
+        <v>262509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>321309</v>
+        <v>322390</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2652049706481547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2370187750938895</v>
+        <v>0.2394515436767437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2930869209779246</v>
+        <v>0.2940729391095026</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>305359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284974</v>
+        <v>283766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>324251</v>
+        <v>326585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6675692902651181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6230050222177003</v>
+        <v>0.6203643251376808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7088706014642453</v>
+        <v>0.7139743728411511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>459</v>
@@ -3050,19 +3050,19 @@
         <v>500192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>476499</v>
+        <v>477679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>521054</v>
+        <v>521561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7829271093193582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7458418066612265</v>
+        <v>0.74768857993912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8155816815810785</v>
+        <v>0.8163749987713692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>771</v>
@@ -3071,19 +3071,19 @@
         <v>805551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>774984</v>
+        <v>773903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>836451</v>
+        <v>833784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7347950293518453</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7069130790220755</v>
+        <v>0.7059270608904974</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7629812249061104</v>
+        <v>0.7605484563232563</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>276328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248441</v>
+        <v>246488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>310682</v>
+        <v>305274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1628713796808731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1464344560549193</v>
+        <v>0.1452833326165641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1831197451641698</v>
+        <v>0.1799324357094022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>184</v>
@@ -3196,19 +3196,19 @@
         <v>195148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169092</v>
+        <v>169355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221624</v>
+        <v>222111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1142802623046168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09902207527722411</v>
+        <v>0.09917564211303434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1297850610108932</v>
+        <v>0.1300703762832817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>445</v>
@@ -3217,19 +3217,19 @@
         <v>471476</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>429606</v>
+        <v>429853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511488</v>
+        <v>514682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1384971803015519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1261976976502021</v>
+        <v>0.126270379964725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1502507028264867</v>
+        <v>0.151188974782086</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1420277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1385923</v>
+        <v>1391331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1448164</v>
+        <v>1450117</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8371286203191269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8168802548358297</v>
+        <v>0.8200675642905977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8535655439450807</v>
+        <v>0.8547166673834358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1461</v>
@@ -3267,19 +3267,19 @@
         <v>1512476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1486000</v>
+        <v>1485513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1538532</v>
+        <v>1538269</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8857197376953833</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8702149389891067</v>
+        <v>0.8699296237167182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9009779247227759</v>
+        <v>0.9008243578869656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2799</v>
@@ -3288,19 +3288,19 @@
         <v>2932753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2892741</v>
+        <v>2889547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2974623</v>
+        <v>2974376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.861502819698448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8497492971735133</v>
+        <v>0.8488110252179141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8738023023497978</v>
+        <v>0.8737296200352749</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>43360</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31850</v>
+        <v>31690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59875</v>
+        <v>59370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08685133141669714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06379745986128453</v>
+        <v>0.06347544360236343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1199309323285481</v>
+        <v>0.1189192460576592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3413,19 +3413,19 @@
         <v>39514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28380</v>
+        <v>28263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52948</v>
+        <v>54106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07773446639171318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05583072289744456</v>
+        <v>0.05560091334552531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1041631742861828</v>
+        <v>0.1064400311096175</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -3434,19 +3434,19 @@
         <v>82874</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66182</v>
+        <v>67042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102051</v>
+        <v>101862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08225183992199997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06568507879357251</v>
+        <v>0.06653851015996623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1012847363691172</v>
+        <v>0.1010971513519978</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>455884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439369</v>
+        <v>439874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467394</v>
+        <v>467554</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9131486685833029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8800690676714519</v>
+        <v>0.8810807539423408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9362025401387155</v>
+        <v>0.9365245563976365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>450</v>
@@ -3484,19 +3484,19 @@
         <v>468806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>455372</v>
+        <v>454214</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>479940</v>
+        <v>480057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9222655336082868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8958368257138172</v>
+        <v>0.8935599688903824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9441692771025554</v>
+        <v>0.9443990866544747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>869</v>
@@ -3505,19 +3505,19 @@
         <v>924690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>905513</v>
+        <v>905702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>941382</v>
+        <v>940522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.917748160078</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8987152636308827</v>
+        <v>0.8989028486480022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9343149212064275</v>
+        <v>0.9334614898400337</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>471749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>432346</v>
+        <v>433388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>513848</v>
+        <v>512838</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1777990470579116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1629485487970634</v>
+        <v>0.1633409947593237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1936661293093173</v>
+        <v>0.1932853589455685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>345</v>
@@ -3630,19 +3630,19 @@
         <v>373344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>336379</v>
+        <v>332195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>415805</v>
+        <v>409110</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1307767982449576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1178283911927328</v>
+        <v>0.1163629706735005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1456503052402556</v>
+        <v>0.1433051695151997</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>795</v>
@@ -3651,19 +3651,19 @@
         <v>845093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>790623</v>
+        <v>791641</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>898114</v>
+        <v>900458</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1534276146732491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1435385802501735</v>
+        <v>0.1437234452356187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1630536648317286</v>
+        <v>0.1634792713148576</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2181520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2139421</v>
+        <v>2140431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2220923</v>
+        <v>2219881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8222009529420884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8063338706906826</v>
+        <v>0.8067146410544317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8370514512029368</v>
+        <v>0.8366590052406764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2370</v>
@@ -3701,19 +3701,19 @@
         <v>2481474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2439013</v>
+        <v>2445708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2518439</v>
+        <v>2522623</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8692232017550424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8543496947597444</v>
+        <v>0.8566948304848001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8821716088072673</v>
+        <v>0.8836370293264992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4439</v>
@@ -3722,19 +3722,19 @@
         <v>4662994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4609973</v>
+        <v>4607629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4717464</v>
+        <v>4716446</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8465723853267509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8369463351682714</v>
+        <v>0.8365207286851423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8564614197498266</v>
+        <v>0.8562765547643812</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>184581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163961</v>
+        <v>163746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205683</v>
+        <v>203499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3443153567467575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3058512523994866</v>
+        <v>0.3054509896979258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3836798382685412</v>
+        <v>0.3796053457391283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>340</v>
@@ -4086,19 +4086,19 @@
         <v>181440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164089</v>
+        <v>163876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199231</v>
+        <v>198779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2312545208890713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2091389299899468</v>
+        <v>0.2088674237338182</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2539296593078062</v>
+        <v>0.2533530017216626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>581</v>
@@ -4107,19 +4107,19 @@
         <v>366021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338320</v>
+        <v>341522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391507</v>
+        <v>395779</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2771475591991575</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2561727860623922</v>
+        <v>0.2585969123841034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.296445438596832</v>
+        <v>0.2996799244694155</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>351499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>330397</v>
+        <v>332581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372119</v>
+        <v>372334</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6556846432532424</v>
+        <v>0.6556846432532426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.616320161731459</v>
+        <v>0.6203946542608718</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6941487476005136</v>
+        <v>0.6945490103020742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1030</v>
@@ -4157,19 +4157,19 @@
         <v>603152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>585361</v>
+        <v>585813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>620503</v>
+        <v>620716</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7687454791109287</v>
+        <v>0.7687454791109288</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7460703406921938</v>
+        <v>0.7466469982783375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7908610700100531</v>
+        <v>0.7911325762661814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1436</v>
@@ -4178,19 +4178,19 @@
         <v>954651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929165</v>
+        <v>924893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>982352</v>
+        <v>979150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7228524408008425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7035545614031681</v>
+        <v>0.7003200755305845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7438272139376079</v>
+        <v>0.7414030876158966</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>312511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>278826</v>
+        <v>276690</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>350404</v>
+        <v>349879</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1455924576684252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1298995061608517</v>
+        <v>0.1289039744996284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1632458714962993</v>
+        <v>0.1630013878224946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -4303,19 +4303,19 @@
         <v>200250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179836</v>
+        <v>178451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225989</v>
+        <v>226862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09487876437010848</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08520620804032338</v>
+        <v>0.08455021296204571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1070735383983967</v>
+        <v>0.1074872584914236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>606</v>
@@ -4324,19 +4324,19 @@
         <v>512761</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>468152</v>
+        <v>472564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>555388</v>
+        <v>559182</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1204493677385604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1099705559181985</v>
+        <v>0.111006817524307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.130462454457633</v>
+        <v>0.1313537403618875</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1833967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1796074</v>
+        <v>1796599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1867652</v>
+        <v>1869788</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8544075423315749</v>
+        <v>0.8544075423315748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8367541285037008</v>
+        <v>0.8369986121775053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8701004938391484</v>
+        <v>0.8710960255003718</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2553</v>
@@ -4374,19 +4374,19 @@
         <v>1910342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1884603</v>
+        <v>1883730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1930756</v>
+        <v>1932141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9051212356298914</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8929264616016036</v>
+        <v>0.8925127415085758</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9147937919596767</v>
+        <v>0.9154497870379543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4166</v>
@@ -4395,19 +4395,19 @@
         <v>3744309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3701682</v>
+        <v>3697888</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3788918</v>
+        <v>3784506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8795506322614396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.869537545542367</v>
+        <v>0.8686462596381123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8900294440818017</v>
+        <v>0.8889931824756931</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>57532</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44411</v>
+        <v>42799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78289</v>
+        <v>74575</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08197254761826678</v>
+        <v>0.08197254761826676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06327822894073767</v>
+        <v>0.06098082336253372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1115479673876611</v>
+        <v>0.1062561054966395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -4520,19 +4520,19 @@
         <v>34756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25595</v>
+        <v>25434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45831</v>
+        <v>45777</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04797816995909388</v>
+        <v>0.04797816995909387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03533137288840982</v>
+        <v>0.03510975619242563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06326589658843729</v>
+        <v>0.06319170313644233</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -4541,19 +4541,19 @@
         <v>92288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75883</v>
+        <v>75671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114851</v>
+        <v>112905</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06470635966133104</v>
+        <v>0.06470635966133102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05320440010849464</v>
+        <v>0.05305577996525288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08052639310247209</v>
+        <v>0.07916207019191622</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>644309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623552</v>
+        <v>627266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>657430</v>
+        <v>659042</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9180274523817331</v>
+        <v>0.9180274523817332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8884520326123385</v>
+        <v>0.8937438945033606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9367217710592624</v>
+        <v>0.9390191766374668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>941</v>
@@ -4591,19 +4591,19 @@
         <v>689657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>678582</v>
+        <v>678636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>698818</v>
+        <v>698979</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9520218300409061</v>
+        <v>0.952021830040906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9367341034115627</v>
+        <v>0.9368082968635577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9646686271115903</v>
+        <v>0.9648902438075743</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1549</v>
@@ -4612,19 +4612,19 @@
         <v>1333966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1311403</v>
+        <v>1313349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1350371</v>
+        <v>1350583</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.935293640338669</v>
+        <v>0.9352936403386688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.919473606897528</v>
+        <v>0.920837929808084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9467955998915055</v>
+        <v>0.9469442200347471</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>554623</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>510661</v>
+        <v>508278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>595996</v>
+        <v>599341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1638764425985255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1508866794168569</v>
+        <v>0.1501826134059186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1761008706084336</v>
+        <v>0.1770891749877843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>683</v>
@@ -4737,19 +4737,19 @@
         <v>416447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>387650</v>
+        <v>386492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>453219</v>
+        <v>449748</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1150533687944965</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1070975022630118</v>
+        <v>0.1067775998738016</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1252125005810956</v>
+        <v>0.1242537180101572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1296</v>
@@ -4758,19 +4758,19 @@
         <v>971070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>914995</v>
+        <v>918384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1029739</v>
+        <v>1027389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1386451556599678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1306390515954403</v>
+        <v>0.131122897529231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.147021691529012</v>
+        <v>0.1466860827588342</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2829777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2788404</v>
+        <v>2785059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2873739</v>
+        <v>2876122</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8361235574014745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.823899129391567</v>
+        <v>0.8229108250122156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8491133205831433</v>
+        <v>0.8498173865940815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4524</v>
@@ -4808,19 +4808,19 @@
         <v>3203150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3166378</v>
+        <v>3169849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3231947</v>
+        <v>3233105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8849466312055035</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8747874994189042</v>
+        <v>0.8757462819898428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8929024977369882</v>
+        <v>0.8932224001261984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7151</v>
@@ -4829,19 +4829,19 @@
         <v>6032926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5974257</v>
+        <v>5976607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6089001</v>
+        <v>6085612</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8613548443400324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8529783084709881</v>
+        <v>0.853313917241166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8693609484045599</v>
+        <v>0.8688771024707691</v>
       </c>
     </row>
     <row r="15">
